--- a/Collateral/RadioMusic_bom.xlsx
+++ b/Collateral/RadioMusic_bom.xlsx
@@ -295,12 +295,6 @@
     <t>604-WP710A10ID</t>
   </si>
   <si>
-    <t xml:space="preserve">40 Pin Male Header </t>
-  </si>
-  <si>
-    <t>571-9-146282-0</t>
-  </si>
-  <si>
     <t>517-929974-01-36-RK</t>
   </si>
   <si>
@@ -337,9 +331,6 @@
     <t xml:space="preserve">Teensy Socket (Back Board)  </t>
   </si>
   <si>
-    <t>660-MF1/4DC1003F</t>
-  </si>
-  <si>
     <t>660-MF1/4DCT52A1002F</t>
   </si>
   <si>
@@ -367,9 +358,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>660-MF1/4CCT52R47R0F</t>
-  </si>
-  <si>
     <t>660-MF1/4DCT52R3303F</t>
   </si>
   <si>
@@ -422,6 +410,18 @@
   </si>
   <si>
     <t>MSD-HOLDER-3: www.acmesystems.it/catalog_sdcard</t>
+  </si>
+  <si>
+    <t>649-68000-436HLF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 Pin Male Header </t>
+  </si>
+  <si>
+    <t>660-MFS1/4DCT52R47R0</t>
+  </si>
+  <si>
+    <t>660-MF1/4LCT52R104G</t>
   </si>
 </sst>
 </file>
@@ -531,11 +531,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bom_F" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bom_B" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bom_B" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bom_F" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -889,13 +889,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
         <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1009,16 +1009,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>64</v>
@@ -1064,7 +1064,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1110,7 +1110,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -1187,13 +1187,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="F15" t="s">
         <v>64</v>
@@ -1207,13 +1207,13 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
         <v>64</v>
@@ -1236,7 +1236,7 @@
         <v>37</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F17" t="s">
         <v>64</v>
@@ -1258,11 +1258,11 @@
       <c r="D18" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>92</v>
+      <c r="E18" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G18" t="s">
         <v>64</v>
@@ -1282,10 +1282,10 @@
         <v>9</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G19" t="s">
         <v>64</v>
@@ -1296,19 +1296,19 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G20" t="s">
         <v>64</v>
@@ -1319,19 +1319,19 @@
         <v>5</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" t="s">
         <v>98</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" t="s">
-        <v>101</v>
       </c>
       <c r="G21" t="s">
         <v>64</v>
@@ -1351,7 +1351,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
         <v>64</v>
@@ -1374,7 +1374,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
         <v>64</v>
@@ -1397,10 +1397,10 @@
         <v>28</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G24" t="s">
         <v>64</v>
@@ -1419,11 +1419,11 @@
       <c r="D25" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>102</v>
+      <c r="E25" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="F25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G25" t="s">
         <v>64</v>
@@ -1443,10 +1443,10 @@
         <v>33</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G26" t="s">
         <v>64</v>
@@ -1457,18 +1457,18 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18">
       <c r="C28" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1479,10 +1479,10 @@
         <v>51</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G29" t="s">
         <v>64</v>
@@ -1502,10 +1502,10 @@
         <v>40</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G30" t="s">
         <v>64</v>
@@ -1522,7 +1522,7 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1533,16 +1533,16 @@
         <v>47</v>
       </c>
       <c r="E32" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G32" s="3"/>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
         <v>54</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="35" spans="2:4">
       <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -1561,10 +1561,10 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
@@ -1572,10 +1572,10 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
         <v>53</v>
@@ -1583,35 +1583,35 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" t="s">
         <v>89</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1629,17 +1629,19 @@
     <hyperlink ref="E12" r:id="rId8"/>
     <hyperlink ref="E13" r:id="rId9" tooltip="Click to view additional information on this product."/>
     <hyperlink ref="E14" r:id="rId10"/>
-    <hyperlink ref="E15" r:id="rId11" tooltip="Click to view additional information on this product."/>
-    <hyperlink ref="E16" r:id="rId12"/>
-    <hyperlink ref="E19" r:id="rId13"/>
-    <hyperlink ref="E20" r:id="rId14"/>
-    <hyperlink ref="E22" r:id="rId15" tooltip="Click to view additional information on this product."/>
-    <hyperlink ref="E21" r:id="rId16" tooltip="Click to view additional information on this product."/>
-    <hyperlink ref="E29" r:id="rId17"/>
-    <hyperlink ref="E30" r:id="rId18"/>
-    <hyperlink ref="E17" r:id="rId19" tooltip="Click to view additional information on this product."/>
-    <hyperlink ref="E7" r:id="rId20" tooltip="Click to view additional information on this product."/>
-    <hyperlink ref="E9" r:id="rId21" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="E16" r:id="rId11"/>
+    <hyperlink ref="E19" r:id="rId12"/>
+    <hyperlink ref="E20" r:id="rId13"/>
+    <hyperlink ref="E22" r:id="rId14" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="E21" r:id="rId15" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="E29" r:id="rId16"/>
+    <hyperlink ref="E30" r:id="rId17"/>
+    <hyperlink ref="E17" r:id="rId18" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="E7" r:id="rId19" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="E9" r:id="rId20" tooltip="Click to view additional information on this product."/>
+    <hyperlink ref="E15" r:id="rId21"/>
+    <hyperlink ref="E25" r:id="rId22"/>
+    <hyperlink ref="E18" r:id="rId23" tooltip="Click to view additional information on this product."/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
